--- a/Service.Identity/wwwroot/layout/excel/Users/UsuarioListado.xlsx
+++ b/Service.Identity/wwwroot/layout/excel/Users/UsuarioListado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPAXSIS-00\source\repos\LaboratorioRamos\Service.Identity\wwwroot\layout\excel\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.Identity\wwwroot\layout\excel\Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE81E4B7-9132-4589-A4D8-DE587DA8C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39B02A-763B-44ED-8649-DA0850A7150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="780" windowWidth="20730" windowHeight="11160" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Usuarios" localSheetId="0">Usuarios!$A$4:$E$5</definedName>
+    <definedName name="Usuarios" localSheetId="0">Usuarios!$A$4:$D$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Clave</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>{{item.TipoUsuario}}</t>
-  </si>
-  <si>
-    <t>Sucursal</t>
-  </si>
-  <si>
-    <t>{{item.SucursalId}}</t>
   </si>
 </sst>
 </file>
@@ -551,15 +545,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="5" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +562,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,13 +573,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -596,9 +587,6 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
